--- a/Documents/TrainingChart.xlsx
+++ b/Documents/TrainingChart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>MF Emulator</t>
     <phoneticPr fontId="1"/>
@@ -345,6 +345,124 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Step 5 分析編</t>
+    <rPh sb="7" eb="9">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GadgeteerAppEH改造</t>
+    <rPh sb="14" eb="16">
+      <t>カイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Event Hubを新たに作成</t>
+    <rPh sb="10" eb="11">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stream Analytics用SQL DB作成</t>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stream Analytics作成</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GadgeteerAppREST改造</t>
+    <rPh sb="16" eb="18">
+      <t>カイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SensorMLController追加</t>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Storage Account再利用</t>
+    <rPh sb="15" eb="18">
+      <t>サイリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine Learning作成</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel Power Qeury/View作成</t>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel Power Map作成</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -619,11 +737,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -631,26 +751,13 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -659,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,9 +830,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,53 +884,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,67 +1191,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:J41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="10" width="25.6328125" customWidth="1"/>
-    <col min="11" max="12" width="20.6328125" customWidth="1"/>
+    <col min="3" max="9" width="25.6328125" customWidth="1"/>
+    <col min="10" max="10" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6328125" customWidth="1"/>
+    <col min="12" max="13" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="21" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="36">
+      <c r="B4" s="26">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="13"/>
@@ -1131,21 +1264,21 @@
       <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -1153,9 +1286,9 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -1165,22 +1298,22 @@
         <v>17</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -1191,36 +1324,37 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="3"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>7</v>
@@ -1231,37 +1365,37 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
         <v>16</v>
@@ -1272,36 +1406,37 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="11" t="s">
         <v>13</v>
@@ -1312,37 +1447,37 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="11" t="s">
         <v>14</v>
@@ -1354,38 +1489,39 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="14"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
@@ -1398,24 +1534,24 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -1428,9 +1564,9 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="12"/>
       <c r="C27" s="15"/>
@@ -1441,9 +1577,9 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
         <v>14</v>
@@ -1457,9 +1593,10 @@
       <c r="I28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="J28" s="19"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="10"/>
       <c r="C29" s="15"/>
@@ -1471,25 +1608,27 @@
       <c r="I29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="J29" s="39"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="11" t="s">
         <v>32</v>
@@ -1503,25 +1642,27 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="19"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -1533,9 +1674,10 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="19"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="9" t="s">
         <v>16</v>
@@ -1547,11 +1689,12 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="19"/>
+      <c r="K34" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16"/>
@@ -1563,73 +1706,78 @@
       <c r="I35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="19"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="37" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="19"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="19"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="19"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="11" t="s">
         <v>43</v>
@@ -1643,29 +1791,186 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="11" t="s">
+      <c r="J40" s="19"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="37" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="13" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E1:I2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
